--- a/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_捷豹组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29980" yWindow="4040" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -774,6 +774,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,18 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1179,7 +1179,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1283,13 +1283,13 @@
       <c r="C2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="40" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="41" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -1317,16 +1317,16 @@
       <c r="O2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="51">
+      <c r="P2" s="43">
         <v>42689</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="50">
+      <c r="R2" s="42">
         <v>4521</v>
       </c>
-      <c r="S2" s="50"/>
+      <c r="S2" s="42"/>
       <c r="T2" s="28"/>
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
@@ -1375,13 +1375,15 @@
       <c r="O3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="43">
         <v>42689</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="28"/>
+      <c r="R3" s="28">
+        <v>4998</v>
+      </c>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="13"/>
@@ -4571,36 +4573,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
@@ -4800,28 +4802,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
